--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/F/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/F/20/seed3/result_data_RandomForest.xlsx
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>13.8171</v>
+        <v>13.7897</v>
       </c>
     </row>
     <row r="9">
@@ -610,7 +610,7 @@
         <v>-8.93</v>
       </c>
       <c r="E10" t="n">
-        <v>12.3418</v>
+        <v>12.30029999999999</v>
       </c>
     </row>
     <row r="11">
@@ -644,7 +644,7 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>11.8926</v>
+        <v>12.147</v>
       </c>
     </row>
     <row r="13">
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>11.96960000000001</v>
+        <v>12.1732</v>
       </c>
     </row>
     <row r="19">
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>13.39009999999999</v>
+        <v>13.40419999999999</v>
       </c>
     </row>
   </sheetData>
